--- a/data/trans_orig/P21C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA505125-819F-48A6-B010-8652C3ABD270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF0CDDE-FADC-411B-B8C7-50B0AC2B4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9016480-8BF3-46EB-B053-29E8EEC1EDE5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A8882AE-4A7E-4B4D-A195-5DD518BA4395}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>92,33%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -170,55 +170,55 @@
     <t>87,48%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -227,1057 +227,1066 @@
     <t>87,54%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>76,87%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>50,08%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>49,92%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>79,04%</t>
+    <t>79,03%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>20,96%</t>
+    <t>20,97%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>93,3%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>58,95%</t>
+    <t>56,62%</t>
   </si>
   <si>
     <t>88,6%</t>
@@ -1286,16 +1295,19 @@
     <t>9,08%</t>
   </si>
   <si>
-    <t>6,7%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>19,74%</t>
@@ -1304,7 +1316,7 @@
     <t>11,4%</t>
   </si>
   <si>
-    <t>41,05%</t>
+    <t>43,38%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECB4DC1-4965-4D70-A9E7-D014C0658F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B1E3E-05E3-420D-ADE0-9F0F3EE18874}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,7 +2648,7 @@
         <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7">
         <v>811</v>
@@ -2645,13 +2657,13 @@
         <v>833899</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2678,13 @@
         <v>46069</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2681,13 +2693,13 @@
         <v>66104</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2696,13 +2708,13 @@
         <v>112173</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2770,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AEC2B3-D9A8-4735-9770-03E2EEEDBFEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC86184-A4F2-4889-9801-CDB3C15EA0FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,7 +2808,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2903,10 +2915,10 @@
         <v>15926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2918,10 +2930,10 @@
         <v>18286</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2933,13 +2945,13 @@
         <v>34214</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2966,13 @@
         <v>877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2969,13 +2981,13 @@
         <v>1938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2984,13 +2996,13 @@
         <v>2814</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3070,13 @@
         <v>50016</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -3073,13 +3085,13 @@
         <v>94644</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -3088,13 +3100,13 @@
         <v>144660</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3121,13 @@
         <v>14948</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3124,13 +3136,13 @@
         <v>12130</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -3139,13 +3151,13 @@
         <v>27078</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3225,13 @@
         <v>81944</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -3228,13 +3240,13 @@
         <v>128299</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -3243,13 +3255,13 @@
         <v>210243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3276,13 @@
         <v>24502</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3279,13 +3291,13 @@
         <v>34252</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -3294,13 +3306,13 @@
         <v>58754</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3380,13 @@
         <v>100334</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -3383,13 +3395,13 @@
         <v>136835</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -3398,13 +3410,13 @@
         <v>237170</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3431,13 @@
         <v>12259</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3434,13 +3446,13 @@
         <v>24598</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3449,13 +3461,13 @@
         <v>36857</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>99212</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>137</v>
@@ -3538,13 +3550,13 @@
         <v>143594</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -3553,13 +3565,13 @@
         <v>242806</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3586,13 @@
         <v>12286</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3589,13 +3601,13 @@
         <v>13767</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3604,13 +3616,13 @@
         <v>26053</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3690,13 @@
         <v>347435</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H19" s="7">
         <v>482</v>
@@ -3693,13 +3705,13 @@
         <v>521658</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>813</v>
@@ -3708,10 +3720,10 @@
         <v>869093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>29</v>
@@ -3729,13 +3741,13 @@
         <v>64871</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3744,13 +3756,13 @@
         <v>86685</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
@@ -3759,13 +3771,13 @@
         <v>151556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3833,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF877DF-7D38-4A3E-A375-DD983F27C150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FA1E94-70AA-4AFC-84CC-8473C31AB273}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3859,7 +3871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,13 +3978,13 @@
         <v>11687</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3981,10 +3993,10 @@
         <v>10278</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3996,13 +4008,13 @@
         <v>21965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4029,13 @@
         <v>3476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4032,13 +4044,13 @@
         <v>1988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4047,13 +4059,13 @@
         <v>5465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4133,13 @@
         <v>28829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4136,13 +4148,13 @@
         <v>40441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -4151,13 +4163,13 @@
         <v>69271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4184,13 @@
         <v>12495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4187,13 +4199,13 @@
         <v>16939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4202,13 +4214,13 @@
         <v>29433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4288,13 @@
         <v>76033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -4291,13 +4303,13 @@
         <v>84877</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -4306,13 +4318,13 @@
         <v>160910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>15659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4342,13 +4354,13 @@
         <v>16933</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -4357,13 +4369,13 @@
         <v>32592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4443,13 @@
         <v>61897</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4446,13 +4458,13 @@
         <v>64601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4461,13 +4473,13 @@
         <v>126498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4494,13 @@
         <v>14561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4497,13 +4509,13 @@
         <v>14035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4512,13 +4524,13 @@
         <v>28596</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4598,13 @@
         <v>91692</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -4601,13 +4613,13 @@
         <v>144255</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>218</v>
@@ -4616,13 +4628,13 @@
         <v>235948</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4649,13 @@
         <v>13045</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4652,13 +4664,13 @@
         <v>22351</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -4667,13 +4679,13 @@
         <v>35396</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4753,13 @@
         <v>270138</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>314</v>
@@ -4756,13 +4768,13 @@
         <v>344454</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>567</v>
@@ -4771,13 +4783,13 @@
         <v>614592</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4804,13 @@
         <v>59237</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4807,13 +4819,13 @@
         <v>72246</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -4822,13 +4834,13 @@
         <v>131483</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4896,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +4917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E858C-2D42-43EC-BDF2-C5A60A1DF0C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F74EA-074A-4528-A6EB-FC1A958A72C6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5029,10 +5041,10 @@
         <v>13646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -5044,13 +5056,13 @@
         <v>14386</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -5059,13 +5071,13 @@
         <v>28033</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5095,13 +5107,13 @@
         <v>3059</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -5110,13 +5122,13 @@
         <v>3852</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5196,13 @@
         <v>66301</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5199,13 +5211,13 @@
         <v>84828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -5214,13 +5226,13 @@
         <v>151128</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5247,13 @@
         <v>10330</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5250,13 +5262,13 @@
         <v>11140</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5265,13 +5277,13 @@
         <v>21471</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5351,13 @@
         <v>124937</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -5354,13 +5366,13 @@
         <v>146962</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>340</v>
@@ -5369,7 +5381,7 @@
         <v>271899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>363</v>
@@ -5393,10 +5405,10 @@
         <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -5405,13 +5417,13 @@
         <v>31065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -5420,13 +5432,13 @@
         <v>52196</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5506,13 @@
         <v>100214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -5509,13 +5521,13 @@
         <v>123145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -5524,13 +5536,13 @@
         <v>223359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5557,13 @@
         <v>5366</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5560,13 +5572,13 @@
         <v>122738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5575,13 +5587,13 @@
         <v>128104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5661,13 @@
         <v>143120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>270</v>
@@ -5664,13 +5676,13 @@
         <v>190869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>419</v>
@@ -5679,13 +5691,13 @@
         <v>333989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5712,13 @@
         <v>7116</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5715,13 +5727,13 @@
         <v>35297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5730,13 +5742,13 @@
         <v>42413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5816,13 @@
         <v>448218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>828</v>
@@ -5819,13 +5831,13 @@
         <v>560190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>1288</v>
@@ -5834,13 +5846,13 @@
         <v>1008408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5867,13 @@
         <v>44737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -5870,13 +5882,13 @@
         <v>203299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -5885,13 +5897,13 @@
         <v>248036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,7 +5959,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FF0CDDE-FADC-411B-B8C7-50B0AC2B4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D511B3B-25E8-4E1A-B288-6BE1703AA3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A8882AE-4A7E-4B4D-A195-5DD518BA4395}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99032F4D-546B-48F7-9EF0-2056B648C072}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="424">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Usted sus familiares lo consideraron necesario</t>
@@ -107,274 +107,280 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>88,05%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,21%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>88,14%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>14,79%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -386,259 +392,247 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>73,6%</t>
+    <t>72,26%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>69,72%</t>
+    <t>69,99%</t>
   </si>
   <si>
     <t>92,4%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>26,4%</t>
+    <t>27,74%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>30,28%</t>
+    <t>30,01%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>81,12%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>88,98%</t>
   </si>
   <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>84,27%</t>
@@ -647,28 +641,31 @@
     <t>80,06%</t>
   </si>
   <si>
-    <t>87,65%</t>
+    <t>87,68%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>82,87%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>15,73%</t>
   </si>
   <si>
-    <t>12,35%</t>
+    <t>12,32%</t>
   </si>
   <si>
     <t>19,94%</t>
@@ -677,331 +674,328 @@
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2016 (Tasa respuesta: 10,5%)</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>56,14%</t>
+    <t>53,68%</t>
   </si>
   <si>
     <t>80,08%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>54,45%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>43,86%</t>
+    <t>46,32%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>73,81%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>26,19%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>80,96%</t>
   </si>
   <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>79,42%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>20,58%</t>
   </si>
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
@@ -1728,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3B1E3E-05E3-420D-ADE0-9F0F3EE18874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727E747A-8CE8-40AE-ABC2-731757E70BDB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2648,7 +2642,7 @@
         <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>811</v>
@@ -2657,13 +2651,13 @@
         <v>833899</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2672,13 @@
         <v>46069</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2693,13 +2687,13 @@
         <v>66104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2708,13 +2702,13 @@
         <v>112173</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,7 +2764,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC86184-A4F2-4889-9801-CDB3C15EA0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E070D5BD-BD4D-474B-830F-697A43EEDD94}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2808,7 +2802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2915,10 +2909,10 @@
         <v>15926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2930,10 +2924,10 @@
         <v>18286</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2945,13 +2939,13 @@
         <v>34214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2960,13 @@
         <v>877</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2981,13 +2975,13 @@
         <v>1938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2996,13 +2990,13 @@
         <v>2814</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3064,13 @@
         <v>50016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -3085,13 +3079,13 @@
         <v>94644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -3100,13 +3094,13 @@
         <v>144660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3115,13 @@
         <v>14948</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -3136,13 +3130,13 @@
         <v>12130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -3151,13 +3145,13 @@
         <v>27078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3219,13 @@
         <v>81944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -3240,13 +3234,13 @@
         <v>128299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -3255,13 +3249,13 @@
         <v>210243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3270,13 @@
         <v>24502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3291,13 +3285,13 @@
         <v>34252</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -3306,13 +3300,13 @@
         <v>58754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3374,13 @@
         <v>100334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -3395,13 +3389,13 @@
         <v>136835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -3410,13 +3404,13 @@
         <v>237170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3425,10 @@
         <v>12259</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>175</v>
@@ -3565,13 +3559,13 @@
         <v>242806</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3580,13 @@
         <v>12286</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3601,13 +3595,13 @@
         <v>13767</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3616,13 +3610,13 @@
         <v>26053</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3684,13 @@
         <v>347435</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>482</v>
@@ -3705,13 +3699,13 @@
         <v>521658</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>813</v>
@@ -3720,13 +3714,13 @@
         <v>869093</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3735,13 @@
         <v>64871</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3756,13 +3750,13 @@
         <v>86685</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>140</v>
@@ -3771,10 +3765,10 @@
         <v>151556</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>215</v>
@@ -3833,7 +3827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +3848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FA1E94-70AA-4AFC-84CC-8473C31AB273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92826CB-2DB1-4D93-9AEE-7FA3F9950A9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,7 +3978,7 @@
         <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3993,10 +3987,10 @@
         <v>10278</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -4008,13 +4002,13 @@
         <v>21965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>3476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4044,13 +4038,13 @@
         <v>1988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4059,13 +4053,13 @@
         <v>5465</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>28829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4148,13 +4142,13 @@
         <v>40441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -4163,13 +4157,13 @@
         <v>69271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>12495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4199,13 +4193,13 @@
         <v>16939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -4214,13 +4208,13 @@
         <v>29433</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4282,13 @@
         <v>76033</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -4303,13 +4297,13 @@
         <v>84877</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -4318,13 +4312,13 @@
         <v>160910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4333,10 @@
         <v>15659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>260</v>
@@ -4789,7 +4783,7 @@
         <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4798,13 @@
         <v>59237</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -4819,13 +4813,13 @@
         <v>72246</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -4834,13 +4828,13 @@
         <v>131483</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4917,7 +4911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F74EA-074A-4528-A6EB-FC1A958A72C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BD24CD-A466-4C34-AC3E-C9D8CE13480A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4934,7 +4928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5041,10 +5035,10 @@
         <v>13646</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -5056,13 +5050,13 @@
         <v>14386</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -5071,13 +5065,13 @@
         <v>28033</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5086,13 @@
         <v>793</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5107,13 +5101,13 @@
         <v>3059</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -5122,13 +5116,13 @@
         <v>3852</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5190,13 @@
         <v>66301</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>142</v>
@@ -5211,13 +5205,13 @@
         <v>84828</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -5226,13 +5220,13 @@
         <v>151128</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5241,13 @@
         <v>10330</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5262,13 +5256,13 @@
         <v>11140</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5277,13 +5271,13 @@
         <v>21471</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5345,13 @@
         <v>124937</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -5366,13 +5360,13 @@
         <v>146962</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>340</v>
@@ -5381,13 +5375,13 @@
         <v>271899</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5396,13 @@
         <v>21131</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -5417,13 +5411,13 @@
         <v>31065</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -5432,13 +5426,13 @@
         <v>52196</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5500,13 @@
         <v>100214</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -5521,13 +5515,13 @@
         <v>123145</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -5536,13 +5530,13 @@
         <v>223359</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5551,13 @@
         <v>5366</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -5572,13 +5566,13 @@
         <v>122738</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -5587,13 +5581,13 @@
         <v>128104</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5655,13 @@
         <v>143120</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>270</v>
@@ -5676,10 +5670,10 @@
         <v>190869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>99</v>
@@ -5691,13 +5685,13 @@
         <v>333989</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5706,13 @@
         <v>7116</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5727,13 +5721,13 @@
         <v>35297</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5742,13 +5736,13 @@
         <v>42413</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5810,13 @@
         <v>448218</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>828</v>
@@ -5831,13 +5825,13 @@
         <v>560190</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>1288</v>
@@ -5846,13 +5840,13 @@
         <v>1008408</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5861,13 @@
         <v>44737</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>130</v>
@@ -5882,13 +5876,13 @@
         <v>203299</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -5897,13 +5891,13 @@
         <v>248036</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5953,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
